--- a/3_output/tablas/gse_tables/midhigh_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/midhigh_ajust_soci.xlsx
@@ -385,9 +385,6 @@
           <t>cfi</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -406,7 +403,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3372424736926576</v>
+        <v>0.3867820460338484</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/gse_tables/midhigh_ajust_soci.xlsx
+++ b/3_output/tablas/gse_tables/midhigh_ajust_soci.xlsx
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3867820460338484</v>
+        <v>0.386093633256666</v>
       </c>
     </row>
   </sheetData>
